--- a/Extensive/Meta.xlsx
+++ b/Extensive/Meta.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
